--- a/collage/data Analysis/labset2.xlsx
+++ b/collage/data Analysis/labset2.xlsx
@@ -130,10 +130,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -417,23 +417,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -469,11 +469,11 @@
         <f>INDEX(A3:D12,2,2)</f>
         <v>West</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <f>MATCH(99,C3:C12,1)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -492,8 +492,8 @@
         <f>INDEX(A3:D12,3,4)</f>
         <v>61000</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -508,11 +508,11 @@
       <c r="D5">
         <v>61000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f>MATCH(140,C3:C12,0)</f>
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -527,8 +527,8 @@
       <c r="D6">
         <v>56000</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -543,15 +543,15 @@
       <c r="D7">
         <v>54000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>INDEX(D3:D12,MATCH("Lana",A3:A12,))</f>
         <v>43000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <f>MATCH(33000,D3:D12,-1)</f>
         <v>8</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -566,8 +566,8 @@
       <c r="D8">
         <v>43000</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
